--- a/templates/asistencia_template_v2.xlsx
+++ b/templates/asistencia_template_v2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PROYECTOS\MAESTROS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PROYECTOS\MAESTROS\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen del Mes" sheetId="1" r:id="rId1"/>
@@ -597,11 +597,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>A/R/F por alumno (máx 60)</a:t>
+              <a:t>A/R/F por alumno </a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -763,6 +764,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -800,6 +802,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -813,6 +816,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -857,6 +861,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1018,6 +1023,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1055,6 +1061,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1068,6 +1075,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1506,7 +1514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1873,9 +1881,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2109,7 +2117,7 @@
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F35" s="4">
-        <f t="shared" ref="F35:F66" si="1">IF(E35&gt;0,B35/E35,0)</f>
+        <f t="shared" ref="F35:F63" si="1">IF(E35&gt;0,B35/E35,0)</f>
         <v>0</v>
       </c>
     </row>
